--- a/biology/Zoologie/Aellopos_fadus/Aellopos_fadus.xlsx
+++ b/biology/Zoologie/Aellopos_fadus/Aellopos_fadus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aellopos fadus est une espèce d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Aellopos.
 </t>
@@ -513,18 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago
-L'envergure varie de 57 à 60 mm. Le corps est brun avec une large bande blanche sur l'abdomen. Le dessus des ailes est brun foncé et la partie antérieure comporte deux bandes de taches pâles et manque d'une tache noire au bout de la cellule. L'aile arrière a une tache pâle sur la costa et une sur la marge intérieure.
+          <t>L'imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'envergure varie de 57 à 60 mm. Le corps est brun avec une large bande blanche sur l'abdomen. Le dessus des ailes est brun foncé et la partie antérieure comporte deux bandes de taches pâles et manque d'une tache noire au bout de la cellule. L'aile arrière a une tache pâle sur la costa et une sur la marge intérieure.
 			Avers du mâle (coll.MHNT)
 			Revers du mâle (coll.MHNT)
 			Avers de la femelle (coll.MHNT)
 			Revers de la femelle (coll.MHNT)
-Les œufs
-Les œufs sont sphériques et verdâtres.
-La chenille
-Il existe au moins deux formes de couleur, une forme verte et une forme brun rougeâtre.
-La nymphe
-La nymphose a lieu dans des cocons en vrac dans des chambres souterraines peu profondes. Les nymphes sont sombres, lisses et brillantes.
 </t>
         </is>
       </c>
@@ -550,15 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. Les adultes des deux sexes sont attirés par la lumière, mais surtout les mâles. Il y a plusieurs générations par an.
-Alimentation
-Les adultes se nourrissent du nectar des fleurs du genre Abelia.
-Les chenilles se nourrissent de rubiacées, notamment les espèces Genipa americana, Alibertia edulis et le genre Randia.
+          <t>Les œufs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont sphériques et verdâtres.
 </t>
         </is>
       </c>
@@ -584,10 +598,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe au moins deux formes de couleur, une forme verte et une forme brun rougeâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La nymphe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nymphose a lieu dans des cocons en vrac dans des chambres souterraines peu profondes. Les nymphes sont sombres, lisses et brillantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. Les adultes des deux sexes sont attirés par la lumière, mais surtout les mâles. Il y a plusieurs générations par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes se nourrissent du nectar des fleurs du genre Abelia.
+Les chenilles se nourrissent de rubiacées, notamment les espèces Genipa americana, Alibertia edulis et le genre Randia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Distribution
 L'espèce se rencontre en Amérique centrale et dans le nord de l'Amérique du Sud .
@@ -596,37 +757,74 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aellopos_fadus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aellopos_fadus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L’espèce Aellopos fadus a été décrite par l'entomologiste hollandais Pieter Cramer en 1775, sous le nom initial de Sphinx fadus[1]. La localité type est le Suriname.
-Synonymie
-Sphinx fadus Cramer, 1775 protonyme
-Macroglossum annulosum Swainson, 1823[2]
-Macroglossa balteata Kirtland, 1851[3]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce Aellopos fadus a été décrite par l'entomologiste hollandais Pieter Cramer en 1775, sous le nom initial de Sphinx fadus. La localité type est le Suriname.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_fadus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sphinx fadus Cramer, 1775 protonyme
+Macroglossum annulosum Swainson, 1823
+Macroglossa balteata Kirtland, 1851
 Sesia fadus flavosignata (Closs, 1916)</t>
         </is>
       </c>
